--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tslp-Il7r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tslp-Il7r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.158268666666667</v>
+        <v>2.013740666666667</v>
       </c>
       <c r="H2">
-        <v>3.474806</v>
+        <v>6.041221999999999</v>
       </c>
       <c r="I2">
-        <v>0.3523202827966646</v>
+        <v>0.3805515268368102</v>
       </c>
       <c r="J2">
-        <v>0.3523202827966647</v>
+        <v>0.3805515268368102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3.970254666666667</v>
+        <v>22.569632</v>
       </c>
       <c r="N2">
-        <v>11.910764</v>
+        <v>67.708896</v>
       </c>
       <c r="O2">
-        <v>0.1277192879665705</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1277192879665705</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>4.598621579087111</v>
+        <v>45.44938579010133</v>
       </c>
       <c r="R2">
-        <v>41.38759421178401</v>
+        <v>409.044472110912</v>
       </c>
       <c r="S2">
-        <v>0.04499809565497077</v>
+        <v>0.3805515268368102</v>
       </c>
       <c r="T2">
-        <v>0.04499809565497078</v>
+        <v>0.3805515268368102</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,22 +593,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.158268666666667</v>
+        <v>0.8431363333333334</v>
       </c>
       <c r="H3">
-        <v>3.474806</v>
+        <v>2.529409</v>
       </c>
       <c r="I3">
-        <v>0.3523202827966646</v>
+        <v>0.1593337336295156</v>
       </c>
       <c r="J3">
-        <v>0.3523202827966647</v>
+        <v>0.1593337336295156</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.115533</v>
+        <v>22.569632</v>
       </c>
       <c r="N3">
-        <v>81.34659900000001</v>
+        <v>67.708896</v>
       </c>
       <c r="O3">
-        <v>0.8722807120334295</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.8722807120334295</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>31.407072253866</v>
+        <v>19.02927676916267</v>
       </c>
       <c r="R3">
-        <v>282.6636502847941</v>
+        <v>171.263490922464</v>
       </c>
       <c r="S3">
-        <v>0.3073221871416938</v>
+        <v>0.1593337336295156</v>
       </c>
       <c r="T3">
-        <v>0.3073221871416939</v>
+        <v>0.1593337336295156</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8431363333333333</v>
+        <v>1.000022</v>
       </c>
       <c r="H4">
-        <v>2.529409</v>
+        <v>3.000066</v>
       </c>
       <c r="I4">
-        <v>0.2564638412010422</v>
+        <v>0.1889815830160193</v>
       </c>
       <c r="J4">
-        <v>0.2564638412010422</v>
+        <v>0.1889815830160193</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>3.970254666666667</v>
+        <v>22.569632</v>
       </c>
       <c r="N4">
-        <v>11.910764</v>
+        <v>67.708896</v>
       </c>
       <c r="O4">
-        <v>0.1277192879665705</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.1277192879665705</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>3.347465962052889</v>
+        <v>22.570128531904</v>
       </c>
       <c r="R4">
-        <v>30.127193658476</v>
+        <v>203.131156787136</v>
       </c>
       <c r="S4">
-        <v>0.03275537918736873</v>
+        <v>0.1889815830160193</v>
       </c>
       <c r="T4">
-        <v>0.03275537918736873</v>
+        <v>0.1889815830160193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8431363333333333</v>
+        <v>1.434738333333333</v>
       </c>
       <c r="H5">
-        <v>2.529409</v>
+        <v>4.304214999999999</v>
       </c>
       <c r="I5">
-        <v>0.2564638412010422</v>
+        <v>0.271133156517655</v>
       </c>
       <c r="J5">
-        <v>0.2564638412010422</v>
+        <v>0.271133156517655</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.115533</v>
+        <v>22.569632</v>
       </c>
       <c r="N5">
-        <v>81.34659900000001</v>
+        <v>67.708896</v>
       </c>
       <c r="O5">
-        <v>0.8722807120334295</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.8722807120334295</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>22.862091069999</v>
+        <v>32.38151619962666</v>
       </c>
       <c r="R5">
-        <v>205.758819629991</v>
+        <v>291.43364579664</v>
       </c>
       <c r="S5">
-        <v>0.2237084620136735</v>
+        <v>0.271133156517655</v>
       </c>
       <c r="T5">
-        <v>0.2237084620136735</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.5370516666666667</v>
-      </c>
-      <c r="H6">
-        <v>1.611155</v>
-      </c>
-      <c r="I6">
-        <v>0.1633595041649117</v>
-      </c>
-      <c r="J6">
-        <v>0.1633595041649117</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>3.970254666666667</v>
-      </c>
-      <c r="N6">
-        <v>11.910764</v>
-      </c>
-      <c r="O6">
-        <v>0.1277192879665705</v>
-      </c>
-      <c r="P6">
-        <v>0.1277192879665705</v>
-      </c>
-      <c r="Q6">
-        <v>2.132231885824445</v>
-      </c>
-      <c r="R6">
-        <v>19.19008697242</v>
-      </c>
-      <c r="S6">
-        <v>0.02086415955451454</v>
-      </c>
-      <c r="T6">
-        <v>0.02086415955451454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.5370516666666667</v>
-      </c>
-      <c r="H7">
-        <v>1.611155</v>
-      </c>
-      <c r="I7">
-        <v>0.1633595041649117</v>
-      </c>
-      <c r="J7">
-        <v>0.1633595041649117</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>27.115533</v>
-      </c>
-      <c r="N7">
-        <v>81.34659900000001</v>
-      </c>
-      <c r="O7">
-        <v>0.8722807120334295</v>
-      </c>
-      <c r="P7">
-        <v>0.8722807120334295</v>
-      </c>
-      <c r="Q7">
-        <v>14.562442190205</v>
-      </c>
-      <c r="R7">
-        <v>131.061979711845</v>
-      </c>
-      <c r="S7">
-        <v>0.1424953446103972</v>
-      </c>
-      <c r="T7">
-        <v>0.1424953446103972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.749088</v>
-      </c>
-      <c r="H8">
-        <v>2.247264</v>
-      </c>
-      <c r="I8">
-        <v>0.2278563718373814</v>
-      </c>
-      <c r="J8">
-        <v>0.2278563718373814</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>3.970254666666667</v>
-      </c>
-      <c r="N8">
-        <v>11.910764</v>
-      </c>
-      <c r="O8">
-        <v>0.1277192879665705</v>
-      </c>
-      <c r="P8">
-        <v>0.1277192879665705</v>
-      </c>
-      <c r="Q8">
-        <v>2.974070127744</v>
-      </c>
-      <c r="R8">
-        <v>26.766631149696</v>
-      </c>
-      <c r="S8">
-        <v>0.02910165356971648</v>
-      </c>
-      <c r="T8">
-        <v>0.02910165356971648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.749088</v>
-      </c>
-      <c r="H9">
-        <v>2.247264</v>
-      </c>
-      <c r="I9">
-        <v>0.2278563718373814</v>
-      </c>
-      <c r="J9">
-        <v>0.2278563718373814</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>27.115533</v>
-      </c>
-      <c r="N9">
-        <v>81.34659900000001</v>
-      </c>
-      <c r="O9">
-        <v>0.8722807120334295</v>
-      </c>
-      <c r="P9">
-        <v>0.8722807120334295</v>
-      </c>
-      <c r="Q9">
-        <v>20.311920383904</v>
-      </c>
-      <c r="R9">
-        <v>182.807283455136</v>
-      </c>
-      <c r="S9">
-        <v>0.1987547182676649</v>
-      </c>
-      <c r="T9">
-        <v>0.1987547182676649</v>
+        <v>0.271133156517655</v>
       </c>
     </row>
   </sheetData>
